--- a/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
+++ b/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291586488256646], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.246916399028398e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010327870353723624], ["'mixed heating grid' (megajoule, GLO, None)", -0.00043762138886430427], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.506043952746886e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631937468734e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01429598769401454], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815191126174491], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881210876561]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0002518204709903866], ["'dishwasher - APOS' (unit, GLO, None)", 0.00037520895665910315], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100409422656775e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.326662899528956e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.7947281944311257e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.888637967454836e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.289976585905238e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461130548246524e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.130593339369405e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00084084276183095], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864623933584955e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0007291586488256646]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.220486736923645], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047771174610744], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04261000851400206], ["'mixed heating grid' (megajoule, GLO, None)", -0.12800591052715166], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.4210517172781263], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838107433915], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.7024951464664493], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332786030647473], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652473774384771]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333211698279397], ["'dishwasher - APOS' (unit, GLO, None)", 0.11211010009149132], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00370091670852875], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0017850644583244269], ["'mixed heating grid' (megajoule, GLO, None)", -0.005249647812532823], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.02005105474828643], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001517133905214793], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01643276144970905], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001239734944335025], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0136820705535975], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759307606453252], ["'erbe - APOS' (unit, GLO, None)", 0.220486736923645]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733900563410881], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606769478839876], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026420600395328526], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736043069617978], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.034001103106109806], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907179535304e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.342507347866739], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190771181112096], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0168414410996555]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.015278032479688399], ["'dishwasher - APOS' (unit, GLO, None)", 0.02349312430777163], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247113932862671e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00011068403029723687], ["'mixed heating grid' (megajoule, GLO, None)", -0.00027625172634545035], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008925322653034513], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001169367091452044], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000430286885072196], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004623943949515858], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869134215453], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987618981255812], ["'erbe - APOS' (unit, GLO, None)", 0.04733900563410881]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05964400737794335], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00040164543349418316], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003445190289101136], ["'mixed heating grid' (megajoule, GLO, None)", -0.008812369623788972], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411898497668], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.86743343407524e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.723352672266226], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002822089553033276], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080461338192]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279137465262598], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630373091013133], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428977557413147], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014432962939254007], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140391274308976], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855698463623702], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001787398916228912], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0005761681437689886], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.005909527283471151], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733462924635765], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561457133904], ["'erbe - APOS' (unit, GLO, None)", 0.05964400737794335]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397228873522023], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.1745202687377581], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.1187621038832785], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538837051150019], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027841469146], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289119678978284], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.6768297755028], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952392159112656], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.33866321754376]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824561938299177], ["'dishwasher - APOS' (unit, GLO, None)", 1.195628884821651], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608681450037], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0049753102153971464], ["'mixed heating grid' (megajoule, GLO, None)", -0.026816411430312177], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0495437559043998], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.1090968148074253], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805068220720832], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4072848735715746], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738454969055728], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761188805174], ["'erbe - APOS' (unit, GLO, None)", 2.397228873522023]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664833722555422], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0028514051843303466], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01121905761283547], ["'mixed heating grid' (megajoule, GLO, None)", -0.0366620016022538], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.003205838148453981], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597087739792], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1919688836591599], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069861228918], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056097116439]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788548421829424], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876567649461497], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439410455343], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00047000086831678765], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035446076024966], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898586581330853], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.000403557641482869], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733702731866623], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0003757564317681298], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682780453265647], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397839002104638], ["'erbe - APOS' (unit, GLO, None)", 0.05664833722555422]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571633559509], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466690317200596e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.541120102631081e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.967037709514332e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546139675053901e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989124458257e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.001871780710240259], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.0484368255726635e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300160167881e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.240710255129866e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.0001069082939574696], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6451467197763657e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.4834842466149018e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269210342103518e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551854910964345e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.857084155882294e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.105075484508526e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.683871586428959e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910056038942673e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918169619641e-06], ["'erbe - APOS' (unit, GLO, None)", 0.0001929571633559509]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933850667271664e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546012399376627e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0667269201939384e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.3080064418670255e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1708293106900628e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.2097625701918854e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.540990848628726e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024520513214e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421560670051351e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.296830526941261e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.7702892974682654e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255231625828e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2847463353183844e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.766755652203068e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.258664686528052e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.606075923502477e-07], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.86857182428078e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.246445392331145e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873305938286255e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.08211604974565e-07], ["'erbe - APOS' (unit, GLO, None)", 1.933850667271664e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035634755418248], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00046867189057505786], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00353008903126705], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842407025682049], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742234062100222], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790051746585894e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1645532652775951], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.003189684531658043], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807747600558223]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019385863927227], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598428222951577], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170639897638794], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014788629911596953], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023960283658771019], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000546852813811363], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0006413280071171565], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792145140559136], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0005712204438244764], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664755482158642], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381289391926036], ["'erbe - APOS' (unit, GLO, None)", 0.02035634755418248]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175253591885685], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0071217160222206395], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06300216422705474], ["'mixed heating grid' (megajoule, GLO, None)", -0.1618116485833641], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615783640915], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273670767160776], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.70510884293027], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0559596531217863], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891261692515]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.2184100901346991], ["'dishwasher - APOS' (unit, GLO, None)", 0.3265408935342963], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0029130796205361813], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026393546512030767], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636054253508923], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660921170138741], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0217391763779546], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173310863876371], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.06689872157614346], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981275500223], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114654283681], ["'erbe - APOS' (unit, GLO, None)", 0.6175253591885685]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.06161853542861806], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00014709200207921726], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012906306775250896], ["'mixed heating grid' (megajoule, GLO, None)", -0.010761848184047735], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004784027116616472], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756364225584e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06646748178186296], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311756382924081], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525746001343632]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019945849864629273], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115435020422632], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016677894258759e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0005406849309866112], ["'mixed heating grid' (megajoule, GLO, None)", -0.00044135393862311566], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.071182811419303e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001416610636107521], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380122232569087], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001021749257507134], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680640949197734], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015980549637339], ["'erbe - APOS' (unit, GLO, None)", 0.06161853542861806]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507703983004747], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491097206553297], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.009394156858947685], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675593117656], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820269490685843], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569952729503537e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05401351602659689], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.014954199909316642], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483344174331]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321620181844148], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147095327845798], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108300871425842], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00039355015663330913], ["'mixed heating grid' (megajoule, GLO, None)", -0.003421002893532792], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0664403103298537e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.831224662216726e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00047748539445565546], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001484512624390885], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378711418336617], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433027813556232], ["'erbe - APOS' (unit, GLO, None)", 0.04507703983004747]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520182046099129], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199918165535896], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002891008615541404], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541853913012602], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004931895161049762], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338633379617254e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06691016783795643], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794626245912], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00894178765428216]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0011061746340644799], ["'dishwasher - APOS' (unit, GLO, None)", 0.0014413924064535166], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172193000458123e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2111325269078114e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092988185767465e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807261716297149e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002771010202145841], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777124501774551], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002249878760423067], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543233539487], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143243318480738], ["'erbe - APOS' (unit, GLO, None)", 0.002520182046099129]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915476648296e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.130998975559466e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.861942875567681e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.2311489782074785e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826856421406e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955086750628e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.559262979593806e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.2704742040067773e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.26572309416319e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.707114744187987e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915692297519428e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.6897513030020813e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0368175760226765e-09], ["'mixed heating grid' (megajoule, GLO, None)", -5.049062589166932e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3376572610626535e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.965689678006576e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403637525123183e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.119043000236083e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593856640741937e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291931223329661e-09], ["'erbe - APOS' (unit, GLO, None)", 2.380915476648296e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512289090896411], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.5106375949743485e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.514922877662152e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001866569706226504], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.125147651012821e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944105189238e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.004974788404795396], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911419571853873e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0007740388294239141]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755453764679839e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.0001303216864538652], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.663122993873973e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.472509422429312e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654985254101642e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.099766057189258e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.715419645709772e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725129028655892e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.66811845415649e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662045985942416], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487439708728e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002512289090896411]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644306325910832], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408454859876093e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.585502097324821e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638682445227756], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.657215639436271e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969026197429227e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003410622073188607], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00018987033772283784], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064415059880526]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639229477605764], ["'dishwasher - APOS' (unit, GLO, None)", 0.00023787042210694691], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893660472386099e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.596731187173595e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023691211867166e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748943177508231e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.409846089696705e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.009291223254627e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.045260827409017e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367527430531504e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.043167768544e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004644306325910832]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758866187006284], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.630040047687918e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.779284594302788e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028265095886955], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830041035169662e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.749788044216987e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003499642454750946], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0002053207520323763], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353568884839426]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0001603521720730562], ["'dishwasher - APOS' (unit, GLO, None)", 0.00024386397972325625], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667545334244988e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.6779126419689066e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.969686210285495e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.978242274930776e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.625546361481061e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.372463991633476e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.29158640002283e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567946095046117e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093468444622229e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004758866187006284]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00391804777104938], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729126565616935e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007704024830449117], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008649684124869367], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00034082040037087266], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.5219615006081895e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01008117687366773], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558758324090329], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321420995927351]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.001360122056882326], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001013423351], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024828607700901e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.2274532182654895e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.54732021031082e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.307146870695334e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.340104610155062e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631452398507], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.104675991518458e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058256388067], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.07178663693755e-05], ["'erbe - APOS' (unit, GLO, None)", 0.00391804777104938]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.428821791074014e-09], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.5769205472818024e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.6312108151845723e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.292518799632323e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267878376258e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307391662232e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.465350239451178e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850465295002483e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508670126587e-09]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765379271531122e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260637664466832e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.463110059156038e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.1022952288313629e-11], ["'mixed heating grid' (megajoule, GLO, None)", -5.300746239923144e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029714480233829e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.054059933257138e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929601143946435e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.914388056527513e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945126297933e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.512250888285201e-11], ["'erbe - APOS' (unit, GLO, None)", 1.428821791074014e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 5.805925427709347e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717589318295814e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.963736631634903e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.948906418300317e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.40832793004269e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.07877521788928e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 8.841560970380075e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.569184190203478e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151527628197713e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953897582075628e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.0054242618553365e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.4291512023541596e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.75518527992177e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.2093754159039872e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.446057807096175e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.941534221123283e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344215520717912e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.882945673351661e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369067618341617e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219408289915556e-08], ["'erbe - APOS' (unit, GLO, None)", 5.805925427709347e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0111965323846751], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316580536305926], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002094728010974198], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199607187142673], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527157509034904], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844757815274774e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0623600161958407], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226349440686502], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265119608114]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0038628052781408302], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860581873871097], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996410283405], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.775460631550719e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004593068642618614], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000198168612840284], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001768345484099725], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0036523866481212594], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001589814742091475], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699746065083112], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888117049419288], ["'erbe - APOS' (unit, GLO, None)", 0.0111965323846751]]</t>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.246915750655182e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010327869784917288], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376212720670565], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.506041694648776e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896330592968537e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01466648705529383], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815185815050232], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881333123847]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00025182044289868445], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003752085749004425], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100406770539229e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.326662661238468e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.7947277154341685e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.8886327784505675e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.079559323698257e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.646111773005503e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.19961523815137e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408428056643555], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624676757213e-05], ["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047768813001286], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0426100074936499], ["'mixed heating grid' (megajoule, GLO, None)", -0.1280058703350382], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.42105170723884244], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568842643332175], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.8181331436122864], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332784102959289], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652474226687684]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333210889129874], ["'dishwasher - APOS' (unit, GLO, None)", 0.11210997257041709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003700915742531739], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0017850644155787327], ["'mixed heating grid' (megajoule, GLO, None)", -0.00524964616421487], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.020051052441976604], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009947397262402805], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432756648258384], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001450806289674415], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0136820872689545], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759310616118079], ["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0002260676017634318], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026420599196868362], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736042316568934], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.03400110263977523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687908593698311e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.345147230373903], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190762933565076], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144280664396]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01527803226199693], ["'dishwasher - APOS' (unit, GLO, None)", 0.023493116799860433], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247110127752573e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00011068402527651822], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762516954621712], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008925321672238445], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009575823811794244], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028662281533104], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0046303034972598], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869708277963], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619106668385], ["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016453054600043], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0034451901336014943], ["'mixed heating grid' (megajoule, GLO, None)", -0.00881236852231007], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411833814428], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867435413153911e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.726873700050483], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220884236575296], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080696506172]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279137174248825], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630362992137376], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428972320279905], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014432962287818128], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140386757036076], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855697095808694], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001492127986780571], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167787850238], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.005918208052813697], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463723555582], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561630306291], ["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452025649520103], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11876209016039638], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538835383317683], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027337512901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289140555780927], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.7921917139166], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952381733868538], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663447419151]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824561520111999], ["'dishwasher - APOS' (unit, GLO, None)", 1.1956280402424746], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608180678264], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00497530964050336], ["'mixed heating grid' (megajoule, GLO, None)", -0.02681640459036835], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04954374495189458], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.04272095827121464], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805065341192346], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4076955970297555], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738455048137301], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761339228903], ["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851404746675173], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.011219057342796867], ["'mixed heating grid' (megajoule, GLO, None)", -0.03666199423241744], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0032058365042721367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301605123859696], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2206027726697578], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069509162497], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056939112202]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788546562999497], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876543479243608], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663437620262696], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004700008570040391], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035443053582865], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898582771700781], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002629456371974777], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733701889791705], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004278271656823375], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682783494212889], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397844376320585], ["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466685265330414e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.541120073550701e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.967037103216373e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546137219597422e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300990074435575e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.001923555541661509], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.0484364102500953e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928301117902927e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.24071013319868e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00010690826395095978], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645144653350237e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.483484234432235e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269207855616186e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551849410316536e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.478708877658427e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050743281441615e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.772637040790681e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910059508425797e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918847431765e-06], ["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546011805579477e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0667268958117354e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.3080054477305465e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.170828975718072e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762581677576e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.939690491862433e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024037205536e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.42156181521425e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.2968305173238e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.7702889656673124e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.041425280274721e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.284746325103929e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667552444979576e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.258663934863886e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 8.908300315998368e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868570403842981e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.341881214302864e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306360182224e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082116917917249e-07], ["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686712291687177], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003530088811860675], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842398240291002], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742230748000438], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779017938270279e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1693128445059389], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00318967903004976], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807748845272116]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019384410097541], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598390162390215], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170612843354061], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001478862899243609], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002396024762902153], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000546852060478226], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002723185514149859], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792130250214184], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0006294085195752994], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664760143302954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290280301309], ["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.007121714189144341], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06300216274453371], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181162217173375], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615665793409], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273673843849929], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.78708879347137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595963731468224], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891603838169]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.21841008950960797], ["'dishwasher - APOS' (unit, GLO, None)", 0.32654075921442904], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913078870731332], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026393545890957067], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636053170342083], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660918656430552], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.01792910696880943], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173305461719302], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.06706750247244364], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0997898248623954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114935484684], ["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470919471711306], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012906306906156139], ["'mixed heating grid' (megajoule, GLO, None)", -0.010761847582466419], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047840182598908707], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393757602923143e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.08032177073624715], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311755916680273], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525747157865734]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019945850564516386], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115434711786701], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016675648288438e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0005406849364706349], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004413539139516765], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.07116367748427e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.749260853821474e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380119617342863], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001247230183958613], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641432737954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015982164559185], ["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491093089795435], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.009394156618485226], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675561184134], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820285594574245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569946660237096e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05565813844756901], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01495419950369806], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483989459184]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321619438935885], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147091697856964], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001410829918749975], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0003935501465595964], ["'mixed heating grid' (megajoule, GLO, None)", -0.003421002880436541], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0664338618611633e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.159391639459118e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852328241706], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001520081358057082], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378714683557206], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028446780219], ["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001019991090569653], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002891008305540693], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541844688088234], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000493189149562036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338646661897541e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06716577248820038], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794011698798], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00894178900412859]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0011061744914838024], ["'dishwasher - APOS' (unit, GLO, None)", 0.0014413880958044644], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172190030880279e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2111323970389682e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092984402535594e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807253425487788e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001535267402870331], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777107480737179], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002293780034227816], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543736317988], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244291935652], ["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309982995838506e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.8619428508598046e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.2311488613546305e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826536002709e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541956343552256e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.961653439456701e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270473648022056e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265724405898946e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.70711455724281e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915688666964686e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751026499791e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0368175656717863e-09], ["'mixed heating grid' (megajoule, GLO, None)", -5.0490621099419535e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.337656531183412e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.637568160563013e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403622772279195e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.205004840907632e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593861514866286e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291932126626929e-09], ["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510633636296569e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5149225917846176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.000186656904360859], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1251462548481515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879448102097397e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.005208655564988682], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911416315299556e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0007740389043747258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755452062997261e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00013032146550253835], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631213746092443e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.4725093026664105e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654982536640654e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0997628189904134e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.990253060411614e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725121311335345e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.710010382586118e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046258117855], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487895252307e-05], ["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408447273094697e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.585501621438107e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638681083901226], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.65721279911812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696903869645599e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003672453320046114], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001898702753852931], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064416509949369]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639226326824175], ["'dishwasher - APOS' (unit, GLO, None)", 0.00023787000678520702], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893657369075296e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5967309878099974e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023685628933684e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748936589598639e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.360473984623682e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.009289704412941e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.556816894715163e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367532713161839e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316866753419e-05], ["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300392650326048e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.779284106725839e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028251016438796], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830038085375109e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497893362253927e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003766581149402516], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00020532068774435926], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353570383947512]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00016035213956599263], ["'dishwasher - APOS' (unit, GLO, None)", 0.0002438635506885956], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667542132857519e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.677912437707909e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9696856328735307e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.978235438483729e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.499652534764677e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.3724624155762526e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.816901709367727e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.56795154429814e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469377639209e-05], ["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729118121210229e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007704024818173268], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008649682891366477], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003408203491887384], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521963197540434e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0107498088443034], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558757622719748], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421160318577]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0013601220497372842], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001008495036422], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024825153585487e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.227453213122759e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547319704439199e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3071457236565396e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.571622951070465e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631242102578], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.97989183900673e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058867911735], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787921251114e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.576919555371346e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.631210742410853e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.2925186347113957e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267499505367e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483091118892675e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.954979256088598e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850457115158835e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508858241843e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765378862732586e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260632048333679e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4631096534231883e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.102295198344211e-11], ["'mixed heating grid' (megajoule, GLO, None)", -5.300745563566262e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029713521375034e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.065958065083031e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929599048604947e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.005014040738728e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945823685667e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.512252138302114e-11], ["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717581997887676e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.963736250015833e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.9489052727694385e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.408327610723889e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078776580995771e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.132213614692961e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691835857125435e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151529015493723e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953895260609237e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.0054201045154204e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.429148208001157e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.755185120049791e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.20937494611055e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.446057078732751e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.037001831807115e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344213966137073e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.954041259329401e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369068128821588e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219409218493913e-08], ["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316579147757158], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0020947279386883426], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199604755972214], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527151648580221], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684478262854161e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06774779236952091], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226348320552586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265389380857]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003862804758078528], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860574069979457], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037995842308901], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.775460328723015e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004593067645571788], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00019816847854730967], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001119366470216642], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386364786493], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.00017045476428875], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699747037578638], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118863436565], ["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627]]</t>
   </si>
 </sst>
 </file>

--- a/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
+++ b/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.246915750655182e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010327869784917288], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376212720670565], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.506041694648776e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896330592968537e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01466648705529383], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815185815050232], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881333123847]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00025182044289868445], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003752085749004425], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100406770539229e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.326662661238468e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.7947277154341685e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.8886327784505675e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.079559323698257e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.646111773005503e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.19961523815137e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408428056643555], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624676757213e-05], ["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047768813001286], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0426100074936499], ["'mixed heating grid' (megajoule, GLO, None)", -0.1280058703350382], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.42105170723884244], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568842643332175], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.8181331436122864], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332784102959289], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652474226687684]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333210889129874], ["'dishwasher - APOS' (unit, GLO, None)", 0.11210997257041709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003700915742531739], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0017850644155787327], ["'mixed heating grid' (megajoule, GLO, None)", -0.00524964616421487], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.020051052441976604], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009947397262402805], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432756648258384], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001450806289674415], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0136820872689545], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759310616118079], ["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0002260676017634318], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026420599196868362], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736042316568934], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.03400110263977523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687908593698311e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.345147230373903], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190762933565076], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144280664396]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01527803226199693], ["'dishwasher - APOS' (unit, GLO, None)", 0.023493116799860433], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247110127752573e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00011068402527651822], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762516954621712], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008925321672238445], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009575823811794244], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028662281533104], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0046303034972598], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869708277963], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619106668385], ["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016453054600043], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0034451901336014943], ["'mixed heating grid' (megajoule, GLO, None)", -0.00881236852231007], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411833814428], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867435413153911e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.726873700050483], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220884236575296], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080696506172]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279137174248825], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630362992137376], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428972320279905], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014432962287818128], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140386757036076], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855697095808694], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001492127986780571], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167787850238], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.005918208052813697], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463723555582], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561630306291], ["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452025649520103], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11876209016039638], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538835383317683], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027337512901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289140555780927], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.7921917139166], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952381733868538], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663447419151]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824561520111999], ["'dishwasher - APOS' (unit, GLO, None)", 1.1956280402424746], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608180678264], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00497530964050336], ["'mixed heating grid' (megajoule, GLO, None)", -0.02681640459036835], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04954374495189458], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.04272095827121464], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805065341192346], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4076955970297555], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738455048137301], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761339228903], ["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851404746675173], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.011219057342796867], ["'mixed heating grid' (megajoule, GLO, None)", -0.03666199423241744], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0032058365042721367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301605123859696], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2206027726697578], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069509162497], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056939112202]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788546562999497], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876543479243608], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663437620262696], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004700008570040391], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035443053582865], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898582771700781], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002629456371974777], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733701889791705], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004278271656823375], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682783494212889], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397844376320585], ["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466685265330414e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.541120073550701e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.967037103216373e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546137219597422e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300990074435575e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.001923555541661509], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.0484364102500953e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928301117902927e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.24071013319868e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00010690826395095978], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645144653350237e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.483484234432235e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269207855616186e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551849410316536e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.478708877658427e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050743281441615e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.772637040790681e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910059508425797e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918847431765e-06], ["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546011805579477e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0667268958117354e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.3080054477305465e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.170828975718072e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762581677576e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.939690491862433e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024037205536e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.42156181521425e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.2968305173238e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.7702889656673124e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.041425280274721e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.284746325103929e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667552444979576e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.258663934863886e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 8.908300315998368e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868570403842981e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.341881214302864e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306360182224e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082116917917249e-07], ["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686712291687177], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003530088811860675], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842398240291002], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742230748000438], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779017938270279e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1693128445059389], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00318967903004976], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807748845272116]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019384410097541], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598390162390215], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170612843354061], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001478862899243609], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002396024762902153], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000546852060478226], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002723185514149859], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792130250214184], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0006294085195752994], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664760143302954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290280301309], ["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.007121714189144341], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06300216274453371], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181162217173375], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615665793409], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273673843849929], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.78708879347137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595963731468224], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891603838169]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.21841008950960797], ["'dishwasher - APOS' (unit, GLO, None)", 0.32654075921442904], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913078870731332], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026393545890957067], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636053170342083], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660918656430552], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.01792910696880943], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173305461719302], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.06706750247244364], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0997898248623954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114935484684], ["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470919471711306], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012906306906156139], ["'mixed heating grid' (megajoule, GLO, None)", -0.010761847582466419], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047840182598908707], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393757602923143e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.08032177073624715], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311755916680273], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525747157865734]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019945850564516386], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115434711786701], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016675648288438e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0005406849364706349], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004413539139516765], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.07116367748427e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.749260853821474e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380119617342863], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001247230183958613], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641432737954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015982164559185], ["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491093089795435], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.009394156618485226], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675561184134], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820285594574245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569946660237096e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05565813844756901], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01495419950369806], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483989459184]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321619438935885], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147091697856964], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001410829918749975], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0003935501465595964], ["'mixed heating grid' (megajoule, GLO, None)", -0.003421002880436541], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0664338618611633e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.159391639459118e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852328241706], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001520081358057082], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378714683557206], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028446780219], ["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001019991090569653], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002891008305540693], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541844688088234], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000493189149562036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338646661897541e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06716577248820038], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794011698798], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00894178900412859]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0011061744914838024], ["'dishwasher - APOS' (unit, GLO, None)", 0.0014413880958044644], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172190030880279e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2111323970389682e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092984402535594e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807253425487788e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001535267402870331], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777107480737179], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002293780034227816], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543736317988], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244291935652], ["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309982995838506e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.8619428508598046e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.2311488613546305e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826536002709e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541956343552256e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.961653439456701e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270473648022056e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265724405898946e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.70711455724281e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915688666964686e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751026499791e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0368175656717863e-09], ["'mixed heating grid' (megajoule, GLO, None)", -5.0490621099419535e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.337656531183412e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.637568160563013e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403622772279195e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.205004840907632e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593861514866286e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291932126626929e-09], ["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510633636296569e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5149225917846176e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.000186656904360859], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1251462548481515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879448102097397e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.005208655564988682], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911416315299556e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0007740389043747258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755452062997261e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00013032146550253835], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631213746092443e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.4725093026664105e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654982536640654e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0997628189904134e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.990253060411614e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725121311335345e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.710010382586118e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046258117855], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487895252307e-05], ["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408447273094697e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.585501621438107e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638681083901226], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.65721279911812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696903869645599e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003672453320046114], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001898702753852931], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064416509949369]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639226326824175], ["'dishwasher - APOS' (unit, GLO, None)", 0.00023787000678520702], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893657369075296e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5967309878099974e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023685628933684e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748936589598639e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.360473984623682e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.009289704412941e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.556816894715163e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367532713161839e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316866753419e-05], ["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300392650326048e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.779284106725839e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028251016438796], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830038085375109e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497893362253927e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003766581149402516], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00020532068774435926], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353570383947512]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00016035213956599263], ["'dishwasher - APOS' (unit, GLO, None)", 0.0002438635506885956], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667542132857519e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.677912437707909e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9696856328735307e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.978235438483729e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.499652534764677e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.3724624155762526e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.816901709367727e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.56795154429814e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469377639209e-05], ["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729118121210229e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007704024818173268], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008649682891366477], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003408203491887384], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521963197540434e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0107498088443034], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558757622719748], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421160318577]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0013601220497372842], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001008495036422], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024825153585487e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.227453213122759e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547319704439199e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3071457236565396e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.571622951070465e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631242102578], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.97989183900673e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058867911735], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787921251114e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.576919555371346e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.631210742410853e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.2925186347113957e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267499505367e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483091118892675e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.954979256088598e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850457115158835e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508858241843e-09]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765378862732586e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260632048333679e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4631096534231883e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.102295198344211e-11], ["'mixed heating grid' (megajoule, GLO, None)", -5.300745563566262e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029713521375034e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.065958065083031e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929599048604947e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.005014040738728e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945823685667e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.512252138302114e-11], ["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717581997887676e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.963736250015833e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.9489052727694385e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.408327610723889e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078776580995771e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.132213614692961e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691835857125435e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151529015493723e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953895260609237e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.0054201045154204e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.429148208001157e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.755185120049791e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.20937494611055e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.446057078732751e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.037001831807115e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344213966137073e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.954041259329401e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369068128821588e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219409218493913e-08], ["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316579147757158], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0020947279386883426], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199604755972214], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527151648580221], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684478262854161e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06774779236952091], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226348320552586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265389380857]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003862804758078528], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860574069979457], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037995842308901], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.775460328723015e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004593067645571788], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00019816847854730967], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001119366470216642], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386364786493], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.00017045476428875], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699747037578638], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118863436565], ["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627]]</t>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.246915750655182e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004261823231110159], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005016266808610184], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.506041694648776e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896330592968537e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01466648705529383], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815185815050232], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881333123847]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00025182044289868445], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003752085749004425], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100406770539229e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.67988534605521e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001139345347110721], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.8886327784505675e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.079559323698257e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.646111773005503e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.19961523815137e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408428056643555], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624676757213e-05], ["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047768813001286], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.1758313414053849], ["'mixed heating grid' (megajoule, GLO, None)", -0.1467276934770485], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.42105170723884244], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568842643332175], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.8181331436122864], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332784102959289], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652474226687684]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333210889129874], ["'dishwasher - APOS' (unit, GLO, None)", 0.11210997257041709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003700915742531739], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03993659832305753], ["'mixed heating grid' (megajoule, GLO, None)", -0.033326280525672575], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.020051052441976604], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009947397262402805], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432756648258384], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001450806289674415], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0136820872689545], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759310616118079], ["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0002260676017634318], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010902531284960984], ["'mixed heating grid' (megajoule, GLO, None)", -0.007721239265723079], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.03400110263977523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687908593698311e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.345147230373903], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190762933565076], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144280664396]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01527803226199693], ["'dishwasher - APOS' (unit, GLO, None)", 0.023493116799860433], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247110127752573e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024762935273763454], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017537261008984384], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008925321672238445], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009575823811794244], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028662281533104], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0046303034972598], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869708277963], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619106668385], ["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016453054600043], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0142166697031918], ["'mixed heating grid' (megajoule, GLO, None)", -0.010101243825490191], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411833814428], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867435413153911e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.726873700050483], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220884236575296], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080696506172]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279137174248825], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630362992137376], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428972320279905], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003229034271648708], ["'mixed heating grid' (megajoule, GLO, None)", -0.0022942968529602197], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855697095808694], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001492127986780571], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167787850238], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.005918208052813697], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463723555582], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561630306291], ["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452025649520103], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.490074957722591], ["'mixed heating grid' (megajoule, GLO, None)", -0.7495189332404374], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027337512901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289140555780927], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.7921917139166], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952381733868538], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663447419151]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824561520111999], ["'dishwasher - APOS' (unit, GLO, None)", 1.1956280402424746], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608180678264], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131079691664754], ["'mixed heating grid' (megajoule, GLO, None)", -0.1702383349492296], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04954374495189458], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.04272095827121464], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805065341192346], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4076955970297555], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738455048137301], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761339228903], ["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851404746675173], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04629574172644511], ["'mixed heating grid' (megajoule, GLO, None)", -0.04202408716031376], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0032058365042721367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301605123859696], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2206027726697578], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069509162497], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056939112202]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788546562999497], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876543479243608], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663437620262696], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010515158598115712], ["'mixed heating grid' (megajoule, GLO, None)", -0.009544936503476093], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898582771700781], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002629456371974777], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733701889791705], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004278271656823375], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682783494212889], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397844376320585], ["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466685265330414e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001461252717927229], ["'mixed heating grid' (megajoule, GLO, None)", -4.547246173705231e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546137219597422e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300990074435575e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.001923555541661509], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.0484364102500953e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928301117902927e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.24071013319868e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00010690826395095978], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645144653350237e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189454381622894e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.0328166279523536e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551849410316536e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.478708877658427e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050743281441615e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.772637040790681e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910059508425797e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918847431765e-06], ["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546011805579477e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2654930978242839e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.938083708017578e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.170828975718072e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762581677576e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.939690491862433e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024037205536e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.42156181521425e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.2968305173238e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.7702889656673124e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.041425280274721e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.8743163263419416e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1215876090793272e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.258663934863886e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 8.908300315998368e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868570403842981e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.341881214302864e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306360182224e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082116917917249e-07], ["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686712291687177], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014567006381355505], ["'mixed heating grid' (megajoule, GLO, None)", -0.006696893009113962], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742230748000438], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779017938270279e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1693128445059389], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00318967903004976], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807748845272116]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019384410097541], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598390162390215], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170612843354061], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0033086062926651486], ["'mixed heating grid' (megajoule, GLO, None)", -0.001521066199456466], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000546852060478226], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002723185514149859], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792130250214184], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0006294085195752994], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664760143302954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290280301309], ["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.007121714189144341], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.2599801182495129], ["'mixed heating grid' (megajoule, GLO, None)", -0.18547779126766598], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615665793409], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273673843849929], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.78708879347137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595963731468224], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891603838169]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.21841008950960797], ["'dishwasher - APOS' (unit, GLO, None)", 0.32654075921442904], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913078870731332], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.059049322330847094], ["'mixed heating grid' (megajoule, GLO, None)", -0.042127595388359806], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660918656430552], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.01792910696880943], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173305461719302], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.06706750247244364], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0997898248623954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114935484684], ["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470919471711306], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.05325822240789825], ["'mixed heating grid' (megajoule, GLO, None)", -0.012335848888756955], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047840182598908707], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393757602923143e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.08032177073624715], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311755916680273], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525747157865734]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019945850564516386], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115434711786701], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016675648288438e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547854915901], ["'mixed heating grid' (megajoule, GLO, None)", -0.0028018429980522196], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.07116367748427e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.749260853821474e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380119617342863], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001247230183958613], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641432737954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015982164559185], ["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491093089795435], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.038765239828852306], ["'mixed heating grid' (megajoule, GLO, None)", -0.09561708471829256], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820285594574245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569946660237096e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05565813844756901], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01495419950369806], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483989459184]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321619438935885], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147091697856964], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001410829918749975], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00880475459930975], ["'mixed heating grid' (megajoule, GLO, None)", -0.021717521163564586], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0664338618611633e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.159391639459118e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852328241706], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001520081358057082], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378714683557206], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028446780219], ["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001019991090569653], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0011929823491654736], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008644896306309595], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000493189149562036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338646661897541e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06716577248820038], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794011698798], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00894178900412859]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0011061744914838024], ["'dishwasher - APOS' (unit, GLO, None)", 0.0014413880958044644], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172190030880279e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00027096225567246895], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019635164473194005], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807253425487788e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001535267402870331], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777107480737179], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002293780034227816], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543736317988], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244291935652], ["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309982995838506e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0062937877455253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.4112136598161397e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826536002709e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541956343552256e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.961653439456701e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270473648022056e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265724405898946e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.70711455724281e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915688666964686e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751026499791e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.5568980182269615e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.205291461631977e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.337656531183412e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.637568160563013e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403622772279195e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.205004840907632e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593861514866286e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291932126626929e-09], ["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510633636296569e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001450442256649887], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021395688320192773], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1251462548481515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879448102097397e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.005208655564988682], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911416315299556e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0007740389043747258]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755452062997261e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00013032146550253835], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631213746092443e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.294391621631663e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.859605532544788e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0997628189904134e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.990253060411614e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725121311335345e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.710010382586118e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046258117855], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487895252307e-05], ["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408447273094697e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000354283032445029], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005317123147829102], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.65721279911812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696903869645599e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003672453320046114], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001898702753852931], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064416509949369]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639226326824175], ["'dishwasher - APOS' (unit, GLO, None)", 0.00023787000678520702], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893657369075296e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046835704228192e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012076788874338702], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748936589598639e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.360473984623682e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.009289704412941e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.556816894715163e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367532713161839e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316866753419e-05], ["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300392650326048e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00036227951879488213], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005505274465096015], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830038085375109e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497893362253927e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003766581149402516], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00020532068774435926], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353570383947512]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00016035213956599263], ["'dishwasher - APOS' (unit, GLO, None)", 0.0002438635506885956], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667542132857519e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.228460015797094e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012504137211378623], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.978235438483729e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.499652534764677e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.3724624155762526e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.816901709367727e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.56795154429814e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469377639209e-05], ["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729118121210229e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0031790865519130867], ["'mixed heating grid' (megajoule, GLO, None)", -0.000991476419508157], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003408203491887384], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521963197540434e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0107498088443034], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558757622719748], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421160318577]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0013601220497372842], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001008495036422], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024825153585487e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220663940979219], ["'mixed heating grid' (megajoule, GLO, None)", -0.00022519417097145887], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3071457236565396e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.571622951070465e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631242102578], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.97989183900673e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058867911735], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787921251114e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.576919555371346e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0857761863273714e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.481559224986541e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267499505367e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483091118892675e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.954979256088598e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850457115158835e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508858241843e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765378862732586e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260632048333679e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4631096534231883e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661250420722496e-10], ["'mixed heating grid' (megajoule, GLO, None)", -3.3650674373221066e-10], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029713521375034e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.065958065083031e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929599048604947e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.005014040738728e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945823685667e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.512252138302114e-11], ["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717581997887676e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.698909860739272e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.380204890785621e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.408327610723889e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078776580995771e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.132213614692961e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691835857125435e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151529015493723e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953895260609237e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.0054201045154204e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.429148208001157e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401339383572315e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.677463862143583e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.446057078732751e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.037001831807115e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344213966137073e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.954041259329401e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369068128821588e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219409218493913e-08], ["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316579147757158], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008643951151470652], ["'mixed heating grid' (megajoule, GLO, None)", -0.012837631347666231], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527151648580221], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684478262854161e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06774779236952091], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226348320552586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265389380857]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003862804758078528], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860574069979457], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037995842308901], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019633018908985123], ["'mixed heating grid' (megajoule, GLO, None)", -0.0029158129146521017], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00019816847854730967], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001119366470216642], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386364786493], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.00017045476428875], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699747037578638], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118863436565], ["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627]]</t>
   </si>
 </sst>
 </file>

--- a/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
+++ b/results/diathermy_APOS/data_diathermy_APOS_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.246915750655182e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004261823231110159], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005016266808610184], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.506041694648776e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896330592968537e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01466648705529383], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815185815050232], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881333123847]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00025182044289868445], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003752085749004425], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100406770539229e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.67988534605521e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001139345347110721], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.8886327784505675e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.079559323698257e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.646111773005503e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.19961523815137e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408428056643555], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624676757213e-05], ["'erbe - APOS' (unit, GLO, None)", 5.367418629040719e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047768813001286], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.1758313414053849], ["'mixed heating grid' (megajoule, GLO, None)", -0.1467276934770485], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.42105170723884244], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568842643332175], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.8181331436122864], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332784102959289], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652474226687684]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333210889129874], ["'dishwasher - APOS' (unit, GLO, None)", 0.11210997257041709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003700915742531739], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03993659832305753], ["'mixed heating grid' (megajoule, GLO, None)", -0.033326280525672575], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.020051052441976604], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009947397262402805], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432756648258384], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001450806289674415], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0136820872689545], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759310616118079], ["'erbe - APOS' (unit, GLO, None)", 0.01623027808886646]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0002260676017634318], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010902531284960984], ["'mixed heating grid' (megajoule, GLO, None)", -0.007721239265723079], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.03400110263977523], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687908593698311e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.345147230373903], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190762933565076], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144280664396]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01527803226199693], ["'dishwasher - APOS' (unit, GLO, None)", 0.023493116799860433], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247110127752573e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024762935273763454], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017537261008984384], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008925321672238445], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009575823811794244], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028662281533104], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0046303034972598], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869708277963], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619106668385], ["'erbe - APOS' (unit, GLO, None)", 0.00348467694471307]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016453054600043], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0142166697031918], ["'mixed heating grid' (megajoule, GLO, None)", -0.010101243825490191], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411833814428], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867435413153911e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.726873700050483], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220884236575296], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080696506172]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279137174248825], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630362992137376], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428972320279905], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003229034271648708], ["'mixed heating grid' (megajoule, GLO, None)", -0.0022942968529602197], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855697095808694], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001492127986780571], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167787850238], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.005918208052813697], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463723555582], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561630306291], ["'erbe - APOS' (unit, GLO, None)", 0.004390461863868028]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452025649520103], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.490074957722591], ["'mixed heating grid' (megajoule, GLO, None)", -0.7495189332404374], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027337512901], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289140555780927], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.7921917139166], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952381733868538], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663447419151]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824561520111999], ["'dishwasher - APOS' (unit, GLO, None)", 1.1956280402424746], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608180678264], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131079691664754], ["'mixed heating grid' (megajoule, GLO, None)", -0.1702383349492296], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04954374495189458], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.04272095827121464], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805065341192346], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4076955970297555], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738455048137301], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761339228903], ["'erbe - APOS' (unit, GLO, None)", 0.1764626991259116]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851404746675173], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04629574172644511], ["'mixed heating grid' (megajoule, GLO, None)", -0.04202408716031376], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0032058365042721367], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301605123859696], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2206027726697578], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069509162497], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056939112202]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788546562999497], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876543479243608], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663437620262696], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010515158598115712], ["'mixed heating grid' (megajoule, GLO, None)", -0.009544936503476093], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898582771700781], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002629456371974777], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733701889791705], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004278271656823375], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682783494212889], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397844376320585], ["'erbe - APOS' (unit, GLO, None)", 0.004169947658803828]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466685265330414e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001461252717927229], ["'mixed heating grid' (megajoule, GLO, None)", -4.547246173705231e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546137219597422e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300990074435575e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.001923555541661509], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.0484364102500953e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928301117902927e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.24071013319868e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00010690826395095978], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645144653350237e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189454381622894e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.0328166279523536e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551849410316536e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.478708877658427e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050743281441615e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.772637040790681e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910059508425797e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918847431765e-06], ["'erbe - APOS' (unit, GLO, None)", 1.420379209763036e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546011805579477e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2654930978242839e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.938083708017578e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.170828975718072e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762581677576e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.939690491862433e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024037205536e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.42156181521425e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.2968305173238e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.7702889656673124e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.041425280274721e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.8743163263419416e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1215876090793272e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.258663934863886e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 8.908300315998368e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868570403842981e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.341881214302864e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306360182224e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082116917917249e-07], ["'erbe - APOS' (unit, GLO, None)", 1.42352910889234e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686712291687177], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014567006381355505], ["'mixed heating grid' (megajoule, GLO, None)", -0.006696893009113962], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742230748000438], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779017938270279e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1693128445059389], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00318967903004976], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807748845272116]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019384410097541], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598390162390215], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170612843354061], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0033086062926651486], ["'mixed heating grid' (megajoule, GLO, None)", -0.001521066199456466], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000546852060478226], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002723185514149859], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792130250214184], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0006294085195752994], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664760143302954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290280301309], ["'erbe - APOS' (unit, GLO, None)", 0.001498455064252781]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.007121714189144341], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.2599801182495129], ["'mixed heating grid' (megajoule, GLO, None)", -0.18547779126766598], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615665793409], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273673843849929], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.78708879347137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595963731468224], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891603838169]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.21841008950960797], ["'dishwasher - APOS' (unit, GLO, None)", 0.32654075921442904], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913078870731332], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.059049322330847094], ["'mixed heating grid' (megajoule, GLO, None)", -0.042127595388359806], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660918656430552], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.01792910696880943], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173305461719302], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.06706750247244364], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0997898248623954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114935484684], ["'erbe - APOS' (unit, GLO, None)", 0.04545673319041101]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470919471711306], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.05325822240789825], ["'mixed heating grid' (megajoule, GLO, None)", -0.012335848888756955], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047840182598908707], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393757602923143e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.08032177073624715], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311755916680273], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525747157865734]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019945850564516386], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115434711786701], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016675648288438e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547854915901], ["'mixed heating grid' (megajoule, GLO, None)", -0.0028018429980522196], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.07116367748427e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.749260853821474e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380119617342863], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001247230183958613], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641432737954], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015982164559185], ["'erbe - APOS' (unit, GLO, None)", 0.004535809344844551]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491093089795435], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.038765239828852306], ["'mixed heating grid' (megajoule, GLO, None)", -0.09561708471829256], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820285594574245], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569946660237096e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05565813844756901], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01495419950369806], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483989459184]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321619438935885], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147091697856964], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001410829918749975], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00880475459930975], ["'mixed heating grid' (megajoule, GLO, None)", -0.021717521163564586], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0664338618611633e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.159391639459118e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852328241706], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001520081358057082], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378714683557206], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028446780219], ["'erbe - APOS' (unit, GLO, None)", 0.00331817109108978]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001019991090569653], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0011929823491654736], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008644896306309595], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000493189149562036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338646661897541e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06716577248820038], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794011698798], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00894178900412859]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0011061744914838024], ["'dishwasher - APOS' (unit, GLO, None)", 0.0014413880958044644], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172190030880279e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00027096225567246895], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019635164473194005], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807253425487788e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001535267402870331], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777107480737179], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002293780034227816], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543736317988], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244291935652], ["'erbe - APOS' (unit, GLO, None)", 0.0001855135897203752]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309982995838506e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0062937877455253e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.4112136598161397e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826536002709e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541956343552256e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.961653439456701e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270473648022056e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265724405898946e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.70711455724281e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915688666964686e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751026499791e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.5568980182269615e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.205291461631977e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.337656531183412e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.637568160563013e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403622772279195e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.205004840907632e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593861514866286e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291932126626929e-09], ["'erbe - APOS' (unit, GLO, None)", 1.752618455374879e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510633636296569e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001450442256649887], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021395688320192773], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1251462548481515e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879448102097397e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.005208655564988682], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911416315299556e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0007740389043747258]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755452062997261e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00013032146550253835], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631213746092443e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.294391621631663e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.859605532544788e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.0997628189904134e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.990253060411614e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725121311335345e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.710010382586118e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046258117855], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487895252307e-05], ["'erbe - APOS' (unit, GLO, None)", 1.849324451885956e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408447273094697e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000354283032445029], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005317123147829102], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.65721279911812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696903869645599e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003672453320046114], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001898702753852931], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064416509949369]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639226326824175], ["'dishwasher - APOS' (unit, GLO, None)", 0.00023787000678520702], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893657369075296e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046835704228192e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012076788874338702], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748936589598639e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.360473984623682e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.009289704412941e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.556816894715163e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367532713161839e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316866753419e-05], ["'erbe - APOS' (unit, GLO, None)", 3.41872661694602e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300392650326048e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00036227951879488213], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005505274465096015], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830038085375109e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497893362253927e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003766581149402516], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00020532068774435926], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353570383947512]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00016035213956599263], ["'dishwasher - APOS' (unit, GLO, None)", 0.0002438635506885956], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667542132857519e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.228460015797094e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012504137211378623], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.978235438483729e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.499652534764677e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.3724624155762526e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.816901709367727e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.56795154429814e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469377639209e-05], ["'erbe - APOS' (unit, GLO, None)", 3.503055450666647e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729118121210229e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0031790865519130867], ["'mixed heating grid' (megajoule, GLO, None)", -0.000991476419508157], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003408203491887384], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521963197540434e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0107498088443034], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558757622719748], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421160318577]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0013601220497372842], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001008495036422], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024825153585487e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220663940979219], ["'mixed heating grid' (megajoule, GLO, None)", -0.00022519417097145887], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3071457236565396e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.571622951070465e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631242102578], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.97989183900673e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058867911735], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787921251114e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002884118715595849]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.576919555371346e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0857761863273714e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.481559224986541e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267499505367e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483091118892675e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.954979256088598e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850457115158835e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508858241843e-09]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765378862732586e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260632048333679e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4631096534231883e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661250420722496e-10], ["'mixed heating grid' (megajoule, GLO, None)", -3.3650674373221066e-10], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029713521375034e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.065958065083031e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929599048604947e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.005014040738728e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945823685667e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.512252138302114e-11], ["'erbe - APOS' (unit, GLO, None)", 1.051771769975295e-10]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717581997887676e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.698909860739272e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.380204890785621e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.408327610723889e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078776580995771e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.132213614692961e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691835857125435e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151529015493723e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953895260609237e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.0054201045154204e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.429148208001157e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401339383572315e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.677463862143583e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.446057078732751e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.037001831807115e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344213966137073e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.954041259329401e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369068128821588e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219409218493913e-08], ["'erbe - APOS' (unit, GLO, None)", 4.273807657743415e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316579147757158], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008643951151470652], ["'mixed heating grid' (megajoule, GLO, None)", -0.012837631347666231], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527151648580221], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684478262854161e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06774779236952091], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226348320552586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265389380857]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003862804758078528], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860574069979457], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037995842308901], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019633018908985123], ["'mixed heating grid' (megajoule, GLO, None)", -0.0029158129146521017], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00019816847854730967], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001119366470216642], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386364786493], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.00017045476428875], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699747037578638], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118863436565], ["'erbe - APOS' (unit, GLO, None)", 0.0008241894402381627]]</t>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 5.367420116727086e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.2469164076176062e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004261823805832801], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005016268119732445], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.50604097697832e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896320489855614e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01466648738823048], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0002181519206477625], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881249447985]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0002518205203554001], ["'dishwasher - APOS' (unit, GLO, None)", 0.00037520892540492877], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100409457790228e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.679886651423588e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011393456449060945], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.888631569866162e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.07955931136884e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461125157575657e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0006790255980825867], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408427713676362], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624472247004e-05], ["'erbe - APOS' (unit, GLO, None)", 5.367420116727086e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01623028403718666], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00904777130292243], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.1758313644002455], ["'mixed heating grid' (megajoule, GLO, None)", -0.14672774218881002], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.42105170437549977], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838679203425], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.8181332666802595], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.073327864889771], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1652473918471166]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07333213996045444], ["'dishwasher - APOS' (unit, GLO, None)", 0.11211009803125918], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0037009167610135936], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.039936603545883576], ["'mixed heating grid' (megajoule, GLO, None)", -0.03332629158958145], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.020051051985109827], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009947396776491407], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432759397101475], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.1868930438564557], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.01368207437764719], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759309884453393], ["'erbe - APOS' (unit, GLO, None)", 0.01623028403718666]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003484677074673155], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606768231291053], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010902531664979714], ["'mixed heating grid' (megajoule, GLO, None)", -0.007721239608514598], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.034001102568533545], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907519296598e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.345147234492164], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002119077017633329], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0168414416015083]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.015278032941160171], ["'dishwasher - APOS' (unit, GLO, None)", 0.023493122603169464], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247113422563041e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024762936136900554], ["'mixed heating grid' (megajoule, GLO, None)", -0.0017537261787567214], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.000892532149971028], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0009575823792391622], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028672161555084], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.04340145916509974], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869271883593], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619074715106], ["'erbe - APOS' (unit, GLO, None)", 0.003484677074673155]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004390462052127658], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016454179808647], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014216670274653917], ["'mixed heating grid' (megajoule, GLO, None)", -0.01010124443058662], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04665411823667537], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433899422925e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.726873705804704], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220894412978852], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080530724713]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019279138157901998], ["'dishwasher - APOS' (unit, GLO, None)", 0.029630370882356802], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001642897692285356], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0032290344014449827], ["'mixed heating grid' (megajoule, GLO, None)", -0.0022942969903958525], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0012855696859083007], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001492127984104271], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0005761679241715546], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.05482771724557964], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00773346311673103], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561586640848], ["'erbe - APOS' (unit, GLO, None)", 0.004390462052127658]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1764627215597552], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452026795543127], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.4900750367119789], ["'mixed heating grid' (megajoule, GLO, None)", -0.7495190850561774], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9283027229563255], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912361348386], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 102.7921922595458], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952392187207607], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663286262728]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.7824562671015256], ["'dishwasher - APOS' (unit, GLO, None)", 1.1956287617740422], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608649449599], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131081485751877], ["'mixed heating grid' (megajoule, GLO, None)", -0.1702383694311588], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04954374273911601], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.04272095800778006], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.038050666348513756], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.385780630941116], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738454986958976], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761297150577], ["'erbe - APOS' (unit, GLO, None)", 0.1764627215597552]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004169948756323934], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851405204678719], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04629574595831087], ["'mixed heating grid' (megajoule, GLO, None)", -0.04202409605016435], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.003205835961128288], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001630159764446423], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.220602795742133], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.040270699461758645], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056371230914]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.018788552292702782], ["'dishwasher - APOS' (unit, GLO, None)", 0.028876566738221046], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439493688693], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0105151595593], ["'mixed heating grid' (megajoule, GLO, None)", -0.00954493852262904], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0004898581897532508], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002629456285599616], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733702399461462], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.04809294614179524], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682781130043061], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397843040265883], ["'erbe - APOS' (unit, GLO, None)", 0.004169948756323934]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.420379322003694e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466690360797932e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014612527603536006], ["'mixed heating grid' (megajoule, GLO, None)", -4.547246845162707e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.546136662807766e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989292989412e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00192355556634322], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.048436886911005e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300447829838e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 7.240710720094228e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.0001069082914633275], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645146737609499e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189455345253694e-05], ["'mixed heating grid' (megajoule, GLO, None)", -1.0328167804605796e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2551848467069663e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.478708867205511e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.105074893196256e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0001850880361018608], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910056864058018e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918685632587e-06], ["'erbe - APOS' (unit, GLO, None)", 1.420379322003694e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.423529251065071e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.5460124170727417e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.265493153058118e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.938084882053055e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.1708289037618485e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.2097625721113205e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 5.939690782646985e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.820024612984394e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421561016445775e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.296830591546792e-05], ["'dishwasher - APOS' (unit, GLO, None)", 4.770289277078303e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255304010335e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.87431645179463e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.1215878757381614e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2586638185013375e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 8.90830018498157e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.86857106448388e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 9.08053871062368e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306042452407e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082116729460727e-07], ["'erbe - APOS' (unit, GLO, None)", 1.423529251065071e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001498456681195387], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686719227585923], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0145670125841903], ["'mixed heating grid' (megajoule, GLO, None)", -0.006696903889689706], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005742229962854381], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790077857982135e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1693128820529239], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.003189685758758942], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807747984354063]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007019392915060642], ["'dishwasher - APOS' (unit, GLO, None)", 0.010598426105977525], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00019170641214079915], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0033086077015159233], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015210686707630813], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0005468519375213988], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002723185404885948], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792138256959327], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.01824722735212062], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664756597384815], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290086828882], ["'erbe - APOS' (unit, GLO, None)", 0.001498456681195387]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04545673620653046], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.007121715862508134], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.25998012845684737], ["'mixed heating grid' (megajoule, GLO, None)", -0.1854778141497571], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5119615650434056], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671429493508], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 19.78708887284949], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.055959652480470426], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891361007407]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.21841010522578444], ["'dishwasher - APOS' (unit, GLO, None)", 0.3265408665813778], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913079555207089], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.05904932464924047], ["'mixed heating grid' (megajoule, GLO, None)", -0.0421276005855722], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011660918325706185], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.01792910692986555], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173307364566604], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.6120184758655254], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981590620252], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114871900394], ["'erbe - APOS' (unit, GLO, None)", 0.04545673620653046]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.004535809479879063], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470920074931338], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.053258222893831725], ["'mixed heating grid' (megajoule, GLO, None)", -0.012335849689139203], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047840175568644565], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756601687322e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.08032177320044], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311756465885176], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525746359883439]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01994585127591998], ["'dishwasher - APOS' (unit, GLO, None)", 0.03115435021374756], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016678115710582e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547965286041], ["'mixed heating grid' (megajoule, GLO, None)", -0.0028018431798431456], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 7.071162574062466e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.749260701501706e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.001038012023175396], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.05122492463278971], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641121657807], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015981974631794], ["'erbe - APOS' (unit, GLO, None)", 0.004535809479879063]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003318171132623269], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491098240502157], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03876524041453802], ["'mixed heating grid' (megajoule, GLO, None)", -0.09561708486274428], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00018820236184157978], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569949728927648e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.05565814257795624], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.014954199832359578], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.003024483371328457]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014321619944916455], ["'dishwasher - APOS' (unit, GLO, None)", 0.022147094678786474], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108301294354157], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008804754732336634], ["'mixed heating grid' (megajoule, GLO, None)", -0.021717521196373924], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.066434292992238e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.159391653963269e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00047748527038396434], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0366207229793067], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378712005800203], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028295198916], ["'erbe - APOS' (unit, GLO, None)", 0.003318171132623269]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001855137585419194], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199918351415684], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0011929830044525645], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008644907276178585], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004931890647898113], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338636197910095e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06716577666793276], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005791794739409643], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.008941788064693708]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.001106175384325982], ["'dishwasher - APOS' (unit, GLO, None)", 0.001441392001409157], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.1721930764907275e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00027096240450792187], ["'mixed heating grid' (megajoule, GLO, None)", -0.00019635189389072028], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.807252075942513e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001535267391641967], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777116287074687], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.002776945375166775], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543354314089], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.000214324408114014], ["'erbe - APOS' (unit, GLO, None)", 0.0001855137585419194]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.752618626336903e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.130999015922987e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.006293853639898e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.4112137998839198e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.467826454881914e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955197581166e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 4.961653789735835e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270474329937098e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265723516489848e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.707115444189685e-08], ["'dishwasher - APOS' (unit, GLO, None)", 1.2915692264415845e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751319512449e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.5568981678929465e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.205291779768112e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3376564022816785e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.637568145620593e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403630639842474e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.174330823148595e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593857785378478e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.29193191052026e-09], ["'erbe - APOS' (unit, GLO, None)", 1.752618626336903e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.84932541115543e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.51063774285219e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001450442628498819], ["'mixed heating grid' (megajoule, GLO, None)", -0.00021395696058977004], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.125145803808167e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879441790106259e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.005208655777516903], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.91142024745401e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.000774038853476133]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.755457046278092e-05], ["'dishwasher - APOS' (unit, GLO, None)", 0.00013032167820158395], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631230543621934e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.294392466212687e-05], ["'mixed heating grid' (megajoule, GLO, None)", -4.8596072902558787e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.099762086509524e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.990252991487149e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.0725125973577915e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002349763517728055], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046045499548], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487773156505e-05], ["'erbe - APOS' (unit, GLO, None)", 1.84932541115543e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.418728529442293e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408455215080374e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00035428310669544805], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005317124764827028], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.657211904642697e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696902623516565e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003672453740633309], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00018987035209340773], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064415548306966]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00015639236227703478], ["'dishwasher - APOS' (unit, GLO, None)", 0.0002378704112998707], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893660617679502e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046837390679047e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012076792547028243], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.748935166353193e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.36047385333841e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.0092906127019326e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004038195886713711], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367528602988563e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316843775912e-05], ["'erbe - APOS' (unit, GLO, None)", 3.418728529442293e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 3.503057425212918e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300400839489737e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0003622795953214797], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005505276139845772], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.830037155945516e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.749788043444359e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.003766581582606185], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000205320766786602], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353569389685328]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00016035224182289631], ["'dishwasher - APOS' (unit, GLO, None)", 0.00024386396817817604], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667545482567867e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.228461753946825e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00012504141015239973], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.97823395665895e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.499652399310605e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.37246335121197e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0004140331097827637], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567947306500079e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469141126023e-05], ["'erbe - APOS' (unit, GLO, None)", 3.503057425212918e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002884118918026297], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729126942364519e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003179086628864771], ["'mixed heating grid' (megajoule, GLO, None)", -0.0009914765679009975], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000340820338872338], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961826392951e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01074980927919762], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558758464848257], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421045892042]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.001360122156032087], ["'dishwasher - APOS' (unit, GLO, None)", 0.0020001013125268683], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024828761806414e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220664115759692], ["'mixed heating grid' (megajoule, GLO, None)", -0.00022519420467594447], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3071455590861627e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.571622935698658e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00024736313384436204], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.003390022394001183], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058410442872], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787654484316e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002884118918026297]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.051772008427568e-10], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.5769205972651674e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0857762820442583e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.4815594186208756e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2491267342693539e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307567320445e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.954979790063505e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.285046693283884e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508728539158e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.765380132024608e-10], ["'dishwasher - APOS' (unit, GLO, None)", 7.260637423120709e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4631100796013242e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661252594741557e-10], ["'mixed heating grid' (megajoule, GLO, None)", -3.365067877124028e-10], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.029713342234771e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.065958046079669e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929600190794102e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.232651896846077e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945283172153e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.51225182777321e-11], ["'erbe - APOS' (unit, GLO, None)", 1.051772008427568e-10]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 4.273809424836507e-08], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.571758960204744e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.698910539569085e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.3802062476730533e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.408327525907622e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.078775419885287e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.132214006646636e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691843149500969e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151528064784647e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.9953904492287493e-07], ["'dishwasher - APOS' (unit, GLO, None)", 3.005424058401811e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.42915131842044e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401340925399464e-08], ["'mixed heating grid' (megajoule, GLO, None)", -7.677466944043812e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.4460569414163474e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.037001818401551e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344214826585296e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.296218622617152e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369067735949e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219408994283844e-08], ["'erbe - APOS' (unit, GLO, None)", 4.273809424836507e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0008241897894235142], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0012316580598992703], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008643952484129048], ["'mixed heating grid' (megajoule, GLO, None)", -0.012837634284458901], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0012527149891681038], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475863006395e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06774779976210836], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01622634970839345], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265209519801]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0038628065809781778], ["'dishwasher - APOS' (unit, GLO, None)", 0.005860581498461216], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996435924917], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019633021935854087], ["'mixed heating grid' (megajoule, GLO, None)", -0.002915813581686211], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00019816845007190697], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001119366443234313], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386527150099], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.009893842807900845], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699746287797927], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118441588766], ["'erbe - APOS' (unit, GLO, None)", 0.0008241897894235142]]</t>
   </si>
 </sst>
 </file>
